--- a/doc/Sensor-type-registration-form.xlsx
+++ b/doc/Sensor-type-registration-form.xlsx
@@ -31,7 +31,7 @@
     <t>1. Sensor type name:</t>
   </si>
   <si>
-    <t>2. Desciption of the sensor type:</t>
+    <t>2. Description of the sensor type:</t>
   </si>
   <si>
     <r>
@@ -158,7 +158,7 @@
         <color indexed="11"/>
         <rFont val="Consolas"/>
       </rPr>
-      <t xml:space="preserve">2. Desciption of the sensor type: </t>
+      <t xml:space="preserve">2. Description of the sensor type: </t>
     </r>
     <r>
       <rPr>
@@ -501,7 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -522,28 +522,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -552,16 +552,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,19 +570,19 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -591,7 +591,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,13 +600,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +615,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -627,13 +627,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -642,16 +642,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,14 +723,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -742,10 +742,10 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -754,15 +754,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -781,7 +778,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -831,8 +828,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff333333"/>
       <rgbColor rgb="ffd8d8d8"/>
       <rgbColor rgb="ffff0000"/>
@@ -1034,17 +1031,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1072,10 +1069,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Apple SD 산돌고딕 Neo 일반체"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1323,12 +1320,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1615,7 +1612,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1643,10 +1640,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Apple SD 산돌고딕 Neo 일반체"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1971,7 +1968,7 @@
       <c r="B7" t="s" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="10"/>
       <c r="E7" s="2"/>
     </row>
@@ -1980,7 +1977,7 @@
       <c r="B8" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="10"/>
       <c r="E8" s="2"/>
     </row>
@@ -1989,7 +1986,7 @@
       <c r="B9" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="10"/>
       <c r="E9" s="2"/>
     </row>
@@ -1998,7 +1995,7 @@
       <c r="B10" t="s" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="10"/>
       <c r="E10" s="2"/>
     </row>
@@ -2007,7 +2004,7 @@
       <c r="B11" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="10"/>
       <c r="E11" s="2"/>
     </row>
@@ -2016,7 +2013,7 @@
       <c r="B12" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="10"/>
       <c r="E12" s="2"/>
     </row>
@@ -2025,7 +2022,7 @@
       <c r="B13" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
     </row>
@@ -2034,23 +2031,23 @@
       <c r="B14" t="s" s="11">
         <v>12</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="10"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="10"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="16" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" t="s" s="14">
+      <c r="B16" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="10"/>
       <c r="E16" s="2"/>
     </row>
@@ -2059,7 +2056,7 @@
       <c r="B17" t="s" s="11">
         <v>5</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="10"/>
       <c r="E17" s="2"/>
     </row>
@@ -2068,7 +2065,7 @@
       <c r="B18" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="10"/>
       <c r="E18" s="2"/>
     </row>
@@ -2077,7 +2074,7 @@
       <c r="B19" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="10"/>
       <c r="E19" s="2"/>
     </row>
@@ -2086,113 +2083,113 @@
       <c r="B20" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="10"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" t="s" s="15">
+      <c r="B21" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="10"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" t="s" s="15">
+      <c r="B22" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="10"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" ht="16" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" t="s" s="15">
+      <c r="B23" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="10"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" t="s" s="15">
+      <c r="B24" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" ht="16" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" t="s" s="15">
+      <c r="B25" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="10"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" t="s" s="15">
+      <c r="B26" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="10"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" ht="16" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" t="s" s="15">
+      <c r="B27" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="10"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" ht="16" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" t="s" s="15">
+      <c r="B28" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="10"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" ht="16" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" t="s" s="15">
+      <c r="B29" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="10"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" ht="16" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" t="s" s="15">
+      <c r="B30" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="10"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" ht="17.25" customHeight="1">
       <c r="A31" s="7"/>
-      <c r="B31" t="s" s="16">
+      <c r="B31" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="10"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
@@ -2207,348 +2204,348 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="B34" t="s" s="20">
+      <c r="B34" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="10"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="7"/>
-      <c r="B35" t="s" s="22">
+      <c r="B35" t="s" s="21">
         <v>24</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="10"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="B36" t="s" s="22">
+      <c r="B36" t="s" s="21">
         <v>25</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="10"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="7"/>
-      <c r="B37" t="s" s="24">
+      <c r="B37" t="s" s="23">
         <v>26</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="7"/>
-      <c r="B38" t="s" s="22">
+      <c r="B38" t="s" s="21">
         <v>27</v>
       </c>
-      <c r="C38" s="23"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="10"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" t="s" s="22">
+      <c r="B39" t="s" s="21">
         <v>28</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="7"/>
-      <c r="B40" t="s" s="22">
+      <c r="B40" t="s" s="21">
         <v>29</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="B41" t="s" s="22">
+      <c r="B41" t="s" s="21">
         <v>30</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="10"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" s="7"/>
-      <c r="B42" t="s" s="22">
+      <c r="B42" t="s" s="21">
         <v>31</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="10"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="7"/>
-      <c r="B43" t="s" s="22">
+      <c r="B43" t="s" s="21">
         <v>32</v>
       </c>
-      <c r="C43" s="23"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="10"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="7"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="10"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="7"/>
-      <c r="B45" t="s" s="26">
+      <c r="B45" t="s" s="25">
         <v>13</v>
       </c>
-      <c r="C45" s="23"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="10"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="7"/>
-      <c r="B46" t="s" s="22">
+      <c r="B46" t="s" s="21">
         <v>33</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="10"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="7"/>
-      <c r="B47" t="s" s="22">
+      <c r="B47" t="s" s="21">
         <v>6</v>
       </c>
-      <c r="C47" s="23"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="10"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="7"/>
-      <c r="B48" t="s" s="22">
+      <c r="B48" t="s" s="21">
         <v>34</v>
       </c>
-      <c r="C48" s="23"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="10"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" s="7"/>
-      <c r="B49" t="s" s="22">
+      <c r="B49" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="C49" s="23"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="10"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" ht="16" customHeight="1">
       <c r="A50" s="7"/>
-      <c r="B50" t="s" s="27">
+      <c r="B50" t="s" s="26">
         <v>16</v>
       </c>
-      <c r="C50" s="23"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="10"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" ht="16" customHeight="1">
       <c r="A51" s="7"/>
-      <c r="B51" t="s" s="24">
+      <c r="B51" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="C51" s="23"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="10"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" ht="16" customHeight="1">
       <c r="A52" s="7"/>
-      <c r="B52" t="s" s="24">
+      <c r="B52" t="s" s="23">
         <v>37</v>
       </c>
-      <c r="C52" s="23"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="10"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" ht="16" customHeight="1">
       <c r="A53" s="7"/>
-      <c r="B53" t="s" s="24">
+      <c r="B53" t="s" s="23">
         <v>38</v>
       </c>
-      <c r="C53" s="23"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="10"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" ht="16" customHeight="1">
       <c r="A54" s="7"/>
-      <c r="B54" t="s" s="24">
+      <c r="B54" t="s" s="23">
         <v>39</v>
       </c>
-      <c r="C54" s="23"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="10"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" ht="16" customHeight="1">
       <c r="A55" s="7"/>
-      <c r="B55" t="s" s="24">
+      <c r="B55" t="s" s="23">
         <v>40</v>
       </c>
-      <c r="C55" s="23"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="10"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" ht="16" customHeight="1">
       <c r="A56" s="7"/>
-      <c r="B56" t="s" s="24">
+      <c r="B56" t="s" s="23">
         <v>41</v>
       </c>
-      <c r="C56" s="23"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="10"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" ht="16" customHeight="1">
       <c r="A57" s="7"/>
-      <c r="B57" t="s" s="22">
+      <c r="B57" t="s" s="21">
         <v>42</v>
       </c>
-      <c r="C57" s="23"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="10"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" ht="16" customHeight="1">
       <c r="A58" s="7"/>
-      <c r="B58" t="s" s="27">
+      <c r="B58" t="s" s="26">
         <v>43</v>
       </c>
-      <c r="C58" s="23"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="10"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" ht="16" customHeight="1">
       <c r="A59" s="7"/>
-      <c r="B59" t="s" s="22">
+      <c r="B59" t="s" s="21">
         <v>44</v>
       </c>
-      <c r="C59" s="23"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="10"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" ht="16" customHeight="1">
       <c r="A60" s="7"/>
-      <c r="B60" t="s" s="27">
+      <c r="B60" t="s" s="26">
         <v>16</v>
       </c>
-      <c r="C60" s="23"/>
+      <c r="C60" s="22"/>
       <c r="D60" s="10"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" ht="16" customHeight="1">
       <c r="A61" s="7"/>
-      <c r="B61" t="s" s="24">
+      <c r="B61" t="s" s="23">
         <v>45</v>
       </c>
-      <c r="C61" s="23"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="10"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" ht="16" customHeight="1">
       <c r="A62" s="7"/>
-      <c r="B62" t="s" s="24">
+      <c r="B62" t="s" s="23">
         <v>37</v>
       </c>
-      <c r="C62" s="23"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="10"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" ht="16" customHeight="1">
       <c r="A63" s="7"/>
-      <c r="B63" t="s" s="24">
+      <c r="B63" t="s" s="23">
         <v>38</v>
       </c>
-      <c r="C63" s="23"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="10"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" ht="16" customHeight="1">
       <c r="A64" s="7"/>
-      <c r="B64" t="s" s="24">
+      <c r="B64" t="s" s="23">
         <v>46</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="10"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" ht="16" customHeight="1">
       <c r="A65" s="7"/>
-      <c r="B65" t="s" s="24">
+      <c r="B65" t="s" s="23">
         <v>47</v>
       </c>
-      <c r="C65" s="23"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="10"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" ht="16" customHeight="1">
       <c r="A66" s="7"/>
-      <c r="B66" t="s" s="24">
+      <c r="B66" t="s" s="23">
         <v>48</v>
       </c>
-      <c r="C66" s="23"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="10"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" ht="16" customHeight="1">
       <c r="A67" s="7"/>
-      <c r="B67" t="s" s="24">
+      <c r="B67" t="s" s="23">
         <v>37</v>
       </c>
-      <c r="C67" s="23"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="10"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" ht="16" customHeight="1">
       <c r="A68" s="7"/>
-      <c r="B68" t="s" s="24">
+      <c r="B68" t="s" s="23">
         <v>38</v>
       </c>
-      <c r="C68" s="23"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="10"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" ht="16" customHeight="1">
       <c r="A69" s="7"/>
-      <c r="B69" t="s" s="24">
+      <c r="B69" t="s" s="23">
         <v>39</v>
       </c>
-      <c r="C69" s="23"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="10"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" ht="16" customHeight="1">
       <c r="A70" s="7"/>
-      <c r="B70" t="s" s="24">
+      <c r="B70" t="s" s="23">
         <v>40</v>
       </c>
-      <c r="C70" s="23"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="10"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" ht="17.25" customHeight="1">
       <c r="A71" s="7"/>
-      <c r="B71" t="s" s="28">
+      <c r="B71" t="s" s="27">
         <v>41</v>
       </c>
-      <c r="C71" s="29"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="10"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="2"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
